--- a/word2vecの紹介.xlsx
+++ b/word2vecの紹介.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10020747.IS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgx03\src\DeepLerningKot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14595" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Corpus→学習データ" sheetId="4" r:id="rId4"/>
     <sheet name="NN" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>表紙</t>
   </si>
@@ -36,15 +36,9 @@
     <t>目次</t>
   </si>
   <si>
-    <t>概要</t>
-  </si>
-  <si>
     <t>DLでの画像処理については、ニュースなどでの取り上げられ方も、それほど誇張されたものではなく、ある程度実用的レベルになっていると実感しています。</t>
   </si>
   <si>
-    <t>これに対し、自然言語処理に関しては、ニュースなどで取り上げられ方は、「人間に匹敵する」とか「ある面では人間を超えている」などと、実際にGoogle翻訳の結果などを見て感じるレベルとは全く異なるものになっています。</t>
-  </si>
-  <si>
     <t>(チャットボットは20年以上以前に見た人工無脳などと呼ばれたおもちゃアプリとの違いが見いだせないレベル。)</t>
   </si>
   <si>
@@ -57,13 +51,7 @@
     <t>ゼロから作るDeep Learning ❷――自然言語処理編</t>
   </si>
   <si>
-    <t>https://www.oreilly.co.jp/books/9784873118369/</t>
-  </si>
-  <si>
     <t>DLでの自然言語処理の例</t>
-  </si>
-  <si>
-    <t>単語を浮動小数点の配列(ベクトル)に変換する。</t>
   </si>
   <si>
     <t>テキストデータから、word2vecで、vocaburaryと呼ばれる単語と浮動小数点の配列の対応表を作成する。</t>
@@ -335,14 +323,129 @@
   </si>
   <si>
     <t>000001000000000000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>word2vecの紹介</t>
+    <rPh sb="9" eb="11">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.oreilly.co.jp/books/9784873118369/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動機</t>
+    <rPh sb="0" eb="2">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これに対し、自然言語処理に関しては、「人間に匹敵する」とか「ある面では人間を超えている」などと紹介されたりしますが、</t>
+    <rPh sb="47" eb="49">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際にGoogle翻訳の結果などを見て感じるレベルとは全く異なるものになっています。</t>
+  </si>
+  <si>
+    <t>今回参考にした本では、単語の処理と、単語の連なりである文の処理の2段階に分けています。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツラ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回は前段の処理である単語の処理を行うword2vecについて紹介します。</t>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DLで処理できるデータは、浮動小数点数の配列なので、単語を浮動小数点数の配列に変換するというのがword2vecの仕事です。</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シゴト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +467,15 @@
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -475,12 +587,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,8 +632,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,6 +654,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="https://www.oreilly.co.jp/books/images/picture_large978-4-87311-836-9.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="2743200"/>
+          <a:ext cx="4070350" cy="5772150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -658,7 +837,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -779,7 +958,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1101,192 +1280,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B27" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B33" s="1" t="s">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C34" s="1" t="s">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="1" t="s">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C36" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C37" s="1" t="s">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C42" s="1">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1298,209 +1579,209 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H2" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H4" s="2">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H5" s="2">
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H6" s="2">
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H7" s="2">
         <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H8" s="2">
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H9" s="2">
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H10" s="2">
         <v>7</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" s="2">
         <v>8</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H12" s="2">
         <v>9</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H13" s="2">
         <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H14" s="2">
         <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H15" s="2">
         <v>12</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H16" s="2">
         <v>13</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H17" s="2">
         <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H18" s="2">
         <v>15</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H19" s="2">
         <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H20" s="2">
         <v>17</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="2">
         <v>18</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H22" s="2">
         <v>19</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H23" s="2">
         <v>20</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H24" s="2">
         <v>21</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.55000000000000004">
       <c r="H25" s="2">
         <v>22</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1519,55 +1800,55 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -1576,18 +1857,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -1596,18 +1877,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -1616,18 +1897,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -1636,18 +1917,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2">
         <v>4</v>
@@ -1656,18 +1937,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2">
         <v>5</v>
@@ -1676,18 +1957,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2">
         <v>6</v>
@@ -1696,18 +1977,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2">
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2">
         <v>7</v>
@@ -1716,18 +1997,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2">
         <v>8</v>
@@ -1736,18 +2017,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2">
         <v>9</v>
@@ -1756,18 +2037,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2">
         <v>10</v>
@@ -1776,18 +2057,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2">
         <v>11</v>
@@ -1796,18 +2077,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2">
         <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G16" s="2">
         <v>12</v>
@@ -1816,18 +2097,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2">
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2">
         <v>13</v>
@@ -1836,18 +2117,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2">
         <v>14</v>
@@ -1856,18 +2137,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G19" s="2">
         <v>15</v>
@@ -1876,18 +2157,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G20" s="2">
         <v>16</v>
@@ -1896,18 +2177,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2">
         <v>17</v>
@@ -1916,18 +2197,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2">
         <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G22" s="2">
         <v>18</v>
@@ -1936,18 +2217,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2">
         <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G23" s="2">
         <v>19</v>
@@ -1956,18 +2237,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2">
         <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G24" s="2">
         <v>20</v>
@@ -1976,15 +2257,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E25" s="9"/>
       <c r="G25" s="2">
@@ -1994,12 +2275,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G26" s="2">
         <v>22</v>
@@ -2008,9 +2289,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2028,28 +2309,28 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2057,16 +2338,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2083,7 +2364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2100,7 +2381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2117,7 +2398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2134,7 +2415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2151,7 +2432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2168,7 +2449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2185,7 +2466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2202,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2219,7 +2500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2236,7 +2517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2253,7 +2534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2270,7 +2551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2287,7 +2568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2304,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2321,7 +2602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2338,7 +2619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2355,7 +2636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2372,7 +2653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2389,7 +2670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2406,7 +2687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2423,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2431,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2445,136 +2726,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2">
         <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I17" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="5">
         <v>0</v>
       </c>
@@ -2582,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="6">
         <v>0</v>
       </c>
@@ -2590,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="6">
         <v>0</v>
       </c>
@@ -2598,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="6">
         <v>0</v>
       </c>
@@ -2606,17 +2887,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="6">
         <v>0</v>
       </c>
@@ -2624,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="6">
         <v>0</v>
       </c>
@@ -2632,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="6">
         <v>0</v>
       </c>
@@ -2640,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="6">
         <v>0</v>
       </c>
@@ -2648,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="6">
         <v>0</v>
       </c>
@@ -2656,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="6">
         <v>0</v>
       </c>
@@ -2664,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="6">
         <v>0</v>
       </c>
@@ -2672,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="6">
         <v>0</v>
       </c>
@@ -2680,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="6">
         <v>0</v>
       </c>
@@ -2688,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="6">
         <v>0</v>
       </c>
@@ -2696,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="6">
         <v>0</v>
       </c>
@@ -2704,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" s="6">
         <v>0</v>
       </c>
@@ -2712,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" s="6">
         <v>0</v>
       </c>
@@ -2720,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D39" s="6">
         <v>0</v>
       </c>
@@ -2728,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" s="6">
         <v>0</v>
       </c>
@@ -2736,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="11">
         <v>1</v>
       </c>
@@ -2744,32 +3025,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I42" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I43" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I44" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I45" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I46" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I47" s="7">
         <v>0</v>
       </c>

--- a/word2vecの紹介.xlsx
+++ b/word2vecの紹介.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgx03\src\DeepLerningKot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10020747.IS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Corpus→学習データ" sheetId="4" r:id="rId4"/>
     <sheet name="NN" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
   <si>
     <t>表紙</t>
   </si>
@@ -190,13 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(省略)</t>
-    <rPh sb="1" eb="3">
-      <t>ショウリャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学習用テキストデータ</t>
     <rPh sb="0" eb="3">
       <t>ガクシュウヨウ</t>
@@ -437,6 +430,116 @@
     </rPh>
     <rPh sb="57" eb="59">
       <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"of"と"to"がダブっているので、Vocabularyは単語リストよりも2個短くなっている。</t>
+    <rPh sb="30" eb="32">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理手順</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習データの作成</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語ベクトルの取り出し</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストデータを単語のリストに変換する。</t>
+    <rPh sb="8" eb="10">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語のリストから、Vocabularyと、Corpusを作成する。</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VocabularyもCorpusも本来の単語の意味から大幅に矮小化されている。適当な単語がないので仕方なしに割り当てたという感じ?</t>
+    <rPh sb="18" eb="20">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オオハバ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ワイショウカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シカタ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -444,7 +547,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,7 +583,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,14 +596,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -560,32 +657,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,12 +689,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -771,10 +836,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>Alice was beginning to get very tired of sitting by her sister on the bank, and of having nothing to do: …</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Alice was beginning to get very tired of sitting by her sister on the bank, and of having nothing to do:</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -841,38 +906,30 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvPr id="3" name="右矢印 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467475" y="7267576"/>
-          <a:ext cx="3409950" cy="6172200"/>
+          <a:off x="876300" y="2867025"/>
+          <a:ext cx="476250" cy="666750"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7556"/>
-          </a:avLst>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -903,26 +960,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右矢印 2"/>
+        <xdr:cNvPr id="4" name="右矢印 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038850" y="10010775"/>
-          <a:ext cx="333375" cy="666750"/>
+          <a:off x="3009900" y="2847975"/>
+          <a:ext cx="466725" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="5762625"/>
+          <a:ext cx="2619375" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1280,266 +1391,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B51" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B59" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C65" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C67" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C68" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B70" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C71" s="1" t="s">
         <v>26</v>
       </c>
@@ -1547,7 +1658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C72" s="1" t="s">
         <v>28</v>
       </c>
@@ -1555,9 +1666,42 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C73" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C79" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B85" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B86" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1573,214 +1717,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H9" s="2">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H10" s="2">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H11" s="2">
-        <v>8</v>
-      </c>
-      <c r="I11" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H12" s="2">
-        <v>9</v>
-      </c>
-      <c r="I12" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H14" s="2">
-        <v>11</v>
-      </c>
-      <c r="I14" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H15" s="2">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H16" s="2">
-        <v>13</v>
-      </c>
-      <c r="I16" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H17" s="2">
-        <v>14</v>
-      </c>
-      <c r="I17" s="2" t="s">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H18" s="2">
-        <v>15</v>
-      </c>
-      <c r="I18" s="2" t="s">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H19" s="2">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H20" s="2">
-        <v>17</v>
-      </c>
-      <c r="I20" s="2" t="s">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H21" s="2">
-        <v>18</v>
-      </c>
-      <c r="I21" s="2" t="s">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H21" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H22" s="2">
-        <v>19</v>
-      </c>
-      <c r="I22" s="2" t="s">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H22" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H23" s="2">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H23" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H24" s="2">
-        <v>21</v>
-      </c>
-      <c r="I24" s="2" t="s">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H24" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="H25" s="2">
-        <v>22</v>
-      </c>
-      <c r="I25" s="2" t="s">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1794,504 +1867,362 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H28"/>
+  <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="2">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="2">
-        <v>7</v>
-      </c>
-      <c r="H11" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="2">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="2">
-        <v>9</v>
-      </c>
-      <c r="H13" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="2">
-        <v>10</v>
-      </c>
-      <c r="H14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="2">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="2">
-        <v>11</v>
-      </c>
-      <c r="H15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="2">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="2">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="2">
-        <v>13</v>
-      </c>
-      <c r="H17" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="2">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="2">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="2">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="2">
-        <v>16</v>
-      </c>
-      <c r="H20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2">
-        <v>17</v>
-      </c>
-      <c r="H21" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="2">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="2">
-        <v>18</v>
-      </c>
-      <c r="H22" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="2">
-        <v>19</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="2">
-        <v>19</v>
-      </c>
-      <c r="H23" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="2">
-        <v>20</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="2">
-        <v>20</v>
-      </c>
-      <c r="H24" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="G25" s="2">
-        <v>21</v>
-      </c>
-      <c r="H25" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="2">
-        <v>22</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" t="s">
-        <v>57</v>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2309,28 +2240,28 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2338,16 +2269,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2364,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2381,7 +2312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2398,7 +2329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2415,7 +2346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2432,7 +2363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2449,7 +2380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2466,7 +2397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2483,7 +2414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2500,7 +2431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2517,7 +2448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2534,7 +2465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2551,7 +2482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2568,7 +2499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2585,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2602,7 +2533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2619,7 +2550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2636,7 +2567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2653,7 +2584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2670,7 +2601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2687,7 +2618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2704,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2712,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2726,136 +2657,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2">
         <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="10">
+        <v>66</v>
+      </c>
+      <c r="I4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I6" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I7" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I14" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="I16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.4">
       <c r="I17" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.4">
       <c r="I18" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.4">
       <c r="I19" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D20" s="5">
         <v>0</v>
       </c>
@@ -2863,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D21" s="6">
         <v>0</v>
       </c>
@@ -2871,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D22" s="6">
         <v>0</v>
       </c>
@@ -2879,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D23" s="6">
         <v>0</v>
       </c>
@@ -2887,17 +2818,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D24" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D25" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D26" s="6">
         <v>0</v>
       </c>
@@ -2905,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D27" s="6">
         <v>0</v>
       </c>
@@ -2913,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D28" s="6">
         <v>0</v>
       </c>
@@ -2921,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D29" s="6">
         <v>0</v>
       </c>
@@ -2929,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D30" s="6">
         <v>0</v>
       </c>
@@ -2937,15 +2868,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D31" s="6">
         <v>0</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D32" s="6">
         <v>0</v>
       </c>
@@ -2953,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D33" s="6">
         <v>0</v>
       </c>
@@ -2961,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D34" s="6">
         <v>0</v>
       </c>
@@ -2969,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D35" s="6">
         <v>0</v>
       </c>
@@ -2977,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D36" s="6">
         <v>0</v>
       </c>
@@ -2985,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D37" s="6">
         <v>0</v>
       </c>
@@ -2993,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D38" s="6">
         <v>0</v>
       </c>
@@ -3001,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D39" s="6">
         <v>0</v>
       </c>
@@ -3009,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D40" s="6">
         <v>0</v>
       </c>
@@ -3017,40 +2948,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D41" s="11">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D41" s="9">
         <v>1</v>
       </c>
       <c r="I41" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
       <c r="I42" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.4">
       <c r="I43" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
       <c r="I44" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.4">
       <c r="I45" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.4">
       <c r="I46" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.4">
       <c r="I47" s="7">
         <v>0</v>
       </c>

--- a/word2vecの紹介.xlsx
+++ b/word2vecの紹介.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10020747.IS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DL\DeepLerningKot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="テキストデータ→単語リスト" sheetId="2" r:id="rId2"/>
     <sheet name="単語リスト→VocabularyとCorpus" sheetId="3" r:id="rId3"/>
-    <sheet name="Corpus→学習データ" sheetId="4" r:id="rId4"/>
-    <sheet name="NN" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Corpus→学習データ" sheetId="4" r:id="rId5"/>
+    <sheet name="NN" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,9 +49,6 @@
     <t>書籍の紹介</t>
   </si>
   <si>
-    <t>ゼロから作るDeep Learning ❷――自然言語処理編</t>
-  </si>
-  <si>
     <t>DLでの自然言語処理の例</t>
   </si>
   <si>
@@ -541,6 +539,10 @@
     <rPh sb="63" eb="64">
       <t>カン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロから作るDeep Learning ❷――自然言語処理編</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -548,6 +550,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +703,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1393,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1409,7 +1417,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -1419,7 +1427,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -1429,12 +1437,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -1449,12 +1457,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -1464,12 +1472,12 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
@@ -1552,118 +1560,118 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B61" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C65" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B66" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C68" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B70" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
@@ -1673,35 +1681,35 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B85" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B86" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1731,130 +1739,130 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1882,38 +1890,38 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -1921,13 +1929,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>20</v>
@@ -1935,13 +1943,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -1949,13 +1957,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>17</v>
@@ -1963,13 +1971,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>8</v>
@@ -1977,13 +1985,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2">
         <v>19</v>
@@ -1991,13 +1999,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>16</v>
@@ -2005,13 +2013,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
         <v>12</v>
@@ -2019,13 +2027,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2">
         <v>15</v>
@@ -2033,13 +2041,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2">
         <v>6</v>
@@ -2047,13 +2055,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2">
         <v>10</v>
@@ -2061,13 +2069,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2">
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2">
         <v>14</v>
@@ -2075,13 +2083,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2">
         <v>13</v>
@@ -2089,13 +2097,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2">
         <v>18</v>
@@ -2103,13 +2111,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2">
         <v>4</v>
@@ -2117,13 +2125,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2131,13 +2139,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2">
         <v>3</v>
@@ -2145,13 +2153,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2">
         <v>12</v>
@@ -2159,13 +2167,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2">
         <v>9</v>
@@ -2173,13 +2181,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2">
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2">
         <v>11</v>
@@ -2187,13 +2195,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2">
         <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="2">
         <v>17</v>
@@ -2201,7 +2209,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="2">
         <v>7</v>
@@ -2209,7 +2217,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -2217,12 +2225,12 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2233,6 +2241,225 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11">
+        <f>A1/A$22</f>
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11">
+        <f t="shared" ref="B2:B20" si="0">A2/A$22</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="11">
+        <f t="shared" si="0"/>
+        <v>3.888888888888889E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="11">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="11">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <f>A21/A$22</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f>SUM(A1:A21)</f>
+        <v>180</v>
+      </c>
+      <c r="B22" s="11">
+        <f>SUM(B1:B21)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -2247,18 +2474,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -2269,13 +2496,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -2643,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
@@ -2669,13 +2896,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2">
         <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -2685,13 +2912,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -2699,13 +2926,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
